--- a/src/JUnit/resources/TemplateImportClients.xlsx
+++ b/src/JUnit/resources/TemplateImportClients.xlsx
@@ -17,13 +17,14 @@
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+    <definedName name="LOCAL_SECOND_FORMAT" hidden="1">" "</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="52">
   <si>
     <t>Civilité</t>
   </si>
@@ -70,12 +71,6 @@
     <t>MME</t>
   </si>
   <si>
-    <t>LE GUEN</t>
-  </si>
-  <si>
-    <t>MAURANE</t>
-  </si>
-  <si>
     <t>BREST</t>
   </si>
   <si>
@@ -88,33 +83,12 @@
     <t>'8-740</t>
   </si>
   <si>
-    <t>'0670566371</t>
-  </si>
-  <si>
     <t>MR</t>
   </si>
   <si>
-    <t>GADREAU</t>
-  </si>
-  <si>
-    <t>ROBIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ans</t>
-  </si>
-  <si>
     <t>NON</t>
   </si>
   <si>
-    <t>'8-711</t>
-  </si>
-  <si>
-    <t>'0661903557</t>
-  </si>
-  <si>
-    <t>LE BRAS</t>
-  </si>
-  <si>
     <t>PIERRE-YVON</t>
   </si>
   <si>
@@ -124,9 +98,6 @@
     <t>'8-265</t>
   </si>
   <si>
-    <t>BOUCHER</t>
-  </si>
-  <si>
     <t>ROBERT</t>
   </si>
   <si>
@@ -139,24 +110,12 @@
     <t>'21-32567</t>
   </si>
   <si>
-    <t>'0666962195</t>
-  </si>
-  <si>
-    <t>KERBOUL</t>
-  </si>
-  <si>
     <t>FRANÇOIS</t>
   </si>
   <si>
-    <t>1 RUE GUY DE MAUPASSANT</t>
-  </si>
-  <si>
     <t>'21-33340</t>
   </si>
   <si>
-    <t>RIO-LUCAS</t>
-  </si>
-  <si>
     <t>ASTRID</t>
   </si>
   <si>
@@ -166,58 +125,61 @@
     <t>astrid.rio@laposte.net</t>
   </si>
   <si>
-    <t>'8-850</t>
-  </si>
-  <si>
-    <t>MEAR</t>
-  </si>
-  <si>
-    <t>CLAIRE</t>
-  </si>
-  <si>
     <t>44 RUE MARCEAU</t>
   </si>
   <si>
-    <t>'8-823</t>
-  </si>
-  <si>
-    <t>'0626824601</t>
-  </si>
-  <si>
-    <t>GOASCOZ</t>
-  </si>
-  <si>
-    <t>ANNE-MARIE</t>
-  </si>
-  <si>
-    <t>1 RUE BIGOT DE MOROGNES</t>
-  </si>
-  <si>
-    <t>'8-181</t>
-  </si>
-  <si>
-    <t>MOBIHAN</t>
-  </si>
-  <si>
-    <t>MARION</t>
-  </si>
-  <si>
     <t>33 RUE DE LYON</t>
   </si>
   <si>
-    <t>'8-981</t>
-  </si>
-  <si>
     <t>NR</t>
   </si>
   <si>
     <t>11 RUE  DUMANOIR</t>
   </si>
   <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>BREST - LÉON BLU</t>
+    <t>TEST1</t>
+  </si>
+  <si>
+    <t>TEST2</t>
+  </si>
+  <si>
+    <t>*test5</t>
+  </si>
+  <si>
+    <t>prenom1</t>
+  </si>
+  <si>
+    <t>prenom2</t>
+  </si>
+  <si>
+    <t>TesT 6</t>
+  </si>
+  <si>
+    <t>0 ans</t>
+  </si>
+  <si>
+    <t>oups</t>
+  </si>
+  <si>
+    <t>8-181</t>
+  </si>
+  <si>
+    <t>8-711</t>
+  </si>
+  <si>
+    <t>BREST - LÉON BLUM</t>
+  </si>
+  <si>
+    <t>0365</t>
+  </si>
+  <si>
+    <t>0680967739</t>
+  </si>
+  <si>
+    <t>0601020304</t>
+  </si>
+  <si>
+    <t>601020304</t>
   </si>
 </sst>
 </file>
@@ -701,8 +663,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1052,10 +1019,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1109,306 +1076,278 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2">
-        <v>29200</v>
-      </c>
-      <c r="H2" t="s">
-        <v>63</v>
-      </c>
-      <c r="I2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" t="s">
-        <v>37</v>
-      </c>
-      <c r="L2" t="s">
-        <v>64</v>
-      </c>
-      <c r="N2" t="s">
-        <v>21</v>
-      </c>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3">
-        <v>29200</v>
-      </c>
-      <c r="H3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" t="s">
-        <v>42</v>
-      </c>
-      <c r="L3" t="s">
-        <v>64</v>
-      </c>
-      <c r="N3" t="s">
-        <v>28</v>
-      </c>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F4">
         <v>29200</v>
       </c>
+      <c r="G4" s="1">
+        <v>42005</v>
+      </c>
       <c r="H4" t="s">
-        <v>25</v>
+        <v>43</v>
+      </c>
+      <c r="I4" t="s">
+        <v>16</v>
       </c>
       <c r="J4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K4" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>47</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" t="s">
         <v>34</v>
       </c>
-      <c r="D5" t="s">
-        <v>45</v>
-      </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F5">
         <v>29200</v>
       </c>
-      <c r="H5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" t="s">
-        <v>36</v>
+      <c r="G5" s="2">
+        <v>31898</v>
+      </c>
+      <c r="H5">
+        <v>29</v>
       </c>
       <c r="J5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L5" t="s">
-        <v>64</v>
-      </c>
-      <c r="N5" t="s">
-        <v>38</v>
+        <v>47</v>
+      </c>
+      <c r="M5">
+        <v>1039</v>
+      </c>
+      <c r="N5">
+        <v>365</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B6" t="s">
-        <v>29</v>
+        <v>19</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F6">
         <v>29200</v>
       </c>
-      <c r="H6" t="s">
-        <v>25</v>
+      <c r="G6" s="2">
+        <v>31899</v>
+      </c>
+      <c r="H6">
+        <v>29</v>
       </c>
       <c r="J6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K6" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="L6" t="s">
-        <v>64</v>
+        <v>47</v>
+      </c>
+      <c r="M6">
+        <v>1298</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" t="s">
         <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E7" t="s">
-        <v>17</v>
       </c>
       <c r="F7">
         <v>29200</v>
       </c>
-      <c r="H7" t="s">
-        <v>25</v>
+      <c r="G7" s="1">
+        <v>42005</v>
+      </c>
+      <c r="H7">
+        <v>-5</v>
       </c>
       <c r="I7" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="J7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="L7" t="s">
-        <v>64</v>
+        <v>47</v>
+      </c>
+      <c r="M7">
+        <v>680967739</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F8">
         <v>29200</v>
       </c>
-      <c r="H8" t="s">
-        <v>25</v>
+      <c r="G8" s="2">
+        <v>31898</v>
       </c>
       <c r="J8" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="K8" t="s">
+        <v>46</v>
+      </c>
+      <c r="L8" t="s">
+        <v>47</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="N8" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="L8" t="s">
-        <v>64</v>
-      </c>
-      <c r="N8" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F9">
         <v>29200</v>
       </c>
-      <c r="H9" t="s">
-        <v>25</v>
+      <c r="G9" s="2">
+        <v>31899</v>
+      </c>
+      <c r="I9" t="s">
+        <v>32</v>
       </c>
       <c r="J9" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="K9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" t="s">
         <v>47</v>
-      </c>
-      <c r="L9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10">
-        <v>29200</v>
-      </c>
-      <c r="H10" t="s">
-        <v>25</v>
-      </c>
-      <c r="J10" t="s">
-        <v>19</v>
-      </c>
-      <c r="K10" t="s">
-        <v>60</v>
-      </c>
-      <c r="L10" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>
